--- a/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -734,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H15"/>
+  <x:dimension ref="A1:H10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>.Sort("Column2, Column3 Desc, Column1 ASC") = Sort table Top to Bottom, Col 2 Asc, Col 3 Desc, Col 1 Asc, Ignore Blanks, Ignore Case</x:t>
   </x:si>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1249,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -6,12 +6,12 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Table" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Sort Left to Right" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Complex 2" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Complex 1" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Simple Column" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Simple" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Table" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Sort Left to Right" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Complex 2" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Complex 1" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Simple Column" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Simple" sheetId="6" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/SortExample.xlsx
@@ -578,7 +578,7 @@
       <x:c r="A4" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s"/>
+      <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -599,7 +599,7 @@
       <x:c r="B5" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="s"/>
+      <x:c r="C5" s="4"/>
       <x:c r="F5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -640,7 +640,7 @@
       <x:c r="C7" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F7" s="8" t="s"/>
+      <x:c r="F7" s="8"/>
       <x:c r="G7" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -649,7 +649,7 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="8" t="s"/>
+      <x:c r="A8" s="8"/>
       <x:c r="B8" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -662,7 +662,7 @@
       <x:c r="G8" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H8" s="4" t="s"/>
+      <x:c r="H8" s="4"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="3" t="s">
@@ -680,7 +680,7 @@
       <x:c r="G9" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H9" s="9" t="s"/>
+      <x:c r="H9" s="9"/>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="7" t="s">
@@ -709,11 +709,11 @@
       <x:c r="B11" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C11" s="9" t="s"/>
+      <x:c r="C11" s="9"/>
       <x:c r="F11" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G11" s="2" t="s"/>
+      <x:c r="G11" s="2"/>
       <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -758,7 +758,7 @@
       <x:c r="D3" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="8" t="s"/>
+      <x:c r="E3" s="8"/>
       <x:c r="F3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -770,7 +770,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s"/>
+      <x:c r="A4" s="2"/>
       <x:c r="B4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -797,7 +797,7 @@
       <x:c r="A5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="4" t="s"/>
+      <x:c r="B5" s="4"/>
       <x:c r="C5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -813,14 +813,14 @@
       <x:c r="G5" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="9" t="s"/>
+      <x:c r="H5" s="9"/>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>5</x:v>
+      <x:c r="A8" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
         <x:v>5</x:v>
@@ -837,14 +837,14 @@
       <x:c r="G8" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H8" s="8" t="s"/>
+      <x:c r="H8" s="8"/>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>5</x:v>
+      <x:c r="A9" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
         <x:v>5</x:v>
@@ -858,26 +858,26 @@
       <x:c r="F9" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G9" s="2" t="s"/>
+      <x:c r="G9" s="2"/>
       <x:c r="H9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>7</x:v>
+      <x:c r="A10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D10" s="4" t="s"/>
+      <x:c r="D10" s="4"/>
       <x:c r="E10" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F10" s="9" t="s"/>
+      <x:c r="F10" s="9"/>
       <x:c r="G10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -927,11 +927,11 @@
       <x:c r="A5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s"/>
+      <x:c r="B5" s="2"/>
       <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F5" s="8" t="s"/>
+      <x:c r="F5" s="8"/>
       <x:c r="G5" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -946,14 +946,14 @@
       <x:c r="B6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="4" t="s"/>
-      <x:c r="F6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="C6" s="4"/>
+      <x:c r="F6" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -967,13 +967,13 @@
       <x:c r="C7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F7" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G7" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
+      <x:c r="F7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -998,7 +998,7 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="8" t="s"/>
+      <x:c r="A9" s="8"/>
       <x:c r="B9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1031,7 +1031,7 @@
       <x:c r="G10" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H10" s="4" t="s"/>
+      <x:c r="H10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="7" t="s">
@@ -1046,7 +1046,7 @@
       <x:c r="F11" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G11" s="2" t="s"/>
+      <x:c r="G11" s="2"/>
       <x:c r="H11" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1058,14 +1058,14 @@
       <x:c r="B12" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C12" s="9" t="s"/>
+      <x:c r="C12" s="9"/>
       <x:c r="F12" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G12" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H12" s="9" t="s"/>
+      <x:c r="H12" s="9"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1099,7 +1099,7 @@
       <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s"/>
+      <x:c r="B3" s="2"/>
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1109,7 +1109,7 @@
       <x:c r="G3" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H3" s="9" t="s"/>
+      <x:c r="H3" s="9"/>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="4" t="s">
@@ -1118,14 +1118,14 @@
       <x:c r="B4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s"/>
+      <x:c r="C4" s="4"/>
       <x:c r="F4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H4" s="4" t="s"/>
+      <x:c r="H4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="6" t="s">
@@ -1157,7 +1157,7 @@
       <x:c r="C6" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F6" s="8" t="s"/>
+      <x:c r="F6" s="8"/>
       <x:c r="G6" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1166,7 +1166,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
+      <x:c r="A7" s="8"/>
       <x:c r="B7" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1230,11 +1230,11 @@
       <x:c r="B10" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C10" s="9" t="s"/>
+      <x:c r="C10" s="9"/>
       <x:c r="F10" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G10" s="2" t="s"/>
+      <x:c r="G10" s="2"/>
       <x:c r="H10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1292,13 +1292,13 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="5" t="s"/>
+      <x:c r="A6" s="5"/>
       <x:c r="D6" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="8" t="s"/>
+      <x:c r="A7" s="8"/>
       <x:c r="D7" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1315,13 +1315,13 @@
       <x:c r="A9" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D9" s="8" t="s"/>
+      <x:c r="D9" s="5"/>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s"/>
+      <x:c r="D10" s="8"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1355,18 +1355,18 @@
       <x:c r="A3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s"/>
+      <x:c r="B3" s="2"/>
       <x:c r="C3" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H3" s="7" t="s">
-        <x:v>5</x:v>
+      <x:c r="F3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H3" s="5" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -1376,15 +1376,15 @@
       <x:c r="B4" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s">
-        <x:v>7</x:v>
+      <x:c r="C4" s="4"/>
+      <x:c r="F4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H4" s="7" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -1423,10 +1423,10 @@
       <x:c r="G6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H6" s="4" t="s"/>
+      <x:c r="H6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="8" t="s"/>
+      <x:c r="A7" s="8"/>
       <x:c r="B7" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1459,7 +1459,7 @@
       <x:c r="G8" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H8" s="9" t="s"/>
+      <x:c r="H8" s="9"/>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="7" t="s">
@@ -1474,7 +1474,7 @@
       <x:c r="F9" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G9" s="2" t="s"/>
+      <x:c r="G9" s="2"/>
       <x:c r="H9" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -1486,8 +1486,8 @@
       <x:c r="B10" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C10" s="9" t="s"/>
-      <x:c r="F10" s="8" t="s"/>
+      <x:c r="C10" s="9"/>
+      <x:c r="F10" s="8"/>
       <x:c r="G10" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
